--- a/gd/美术需求文档/怪物需求/v0.5怪物需求.xlsx
+++ b/gd/美术需求文档/怪物需求/v0.5怪物需求.xlsx
@@ -19,11 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="80">
-  <si>
-    <t>中斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
   <si>
     <t>弱随便</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -56,14 +52,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红速法D</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>狸</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>红法dot攻</t>
   </si>
   <si>
@@ -99,9 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>红速物D</t>
-  </si>
-  <si>
     <t xml:space="preserve">黑妨害S </t>
   </si>
   <si>
@@ -144,18 +129,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>蓝妨害S（降速度）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>弱</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>强</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -173,10 +150,6 @@
   </si>
   <si>
     <t>弱随便</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>中斩</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -216,10 +189,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>弱斩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>中</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,10 +249,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>扇子，击破降攻击</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>头罩能破，露出核心，受伤比提升</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -324,6 +289,78 @@
   </si>
   <si>
     <t>职业定位</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>水鬼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扇子，击破降攻击，面具，击破打脸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>独角兽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>★★★</t>
+  </si>
+  <si>
+    <t xml:space="preserve">白提升S辅助hot </t>
+  </si>
+  <si>
+    <t>★★</t>
+  </si>
+  <si>
+    <t>蓝控S</t>
+  </si>
+  <si>
+    <t>弱治疗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中随便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>治疗附加hot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法系</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>法系（控制）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哈皮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红速法D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>弱随便</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红速物D</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中砸</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝妨害S（降速度）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -382,12 +419,18 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -407,7 +450,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -436,6 +479,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -717,421 +763,448 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B17"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="16.5"/>
   <cols>
     <col min="1" max="1" width="8.875" style="5"/>
     <col min="2" max="2" width="25.125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="14.875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="18.75" style="5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.25" style="5" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="21.375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="8.875" style="5"/>
+    <col min="6" max="6" width="12.125" style="5" customWidth="1"/>
     <col min="7" max="7" width="14" style="5" customWidth="1"/>
     <col min="8" max="16384" width="8.875" style="5"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
       <c r="B1" s="7" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="D1" s="7" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E1" s="7" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>77</v>
+        <v>68</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C2" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="F3" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>18</v>
+      <c r="B4" s="9" t="s">
+        <v>64</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>45</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>46</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="9" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C5" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>31</v>
+        <v>43</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>88</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>54</v>
+        <v>38</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>69</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:8">
-      <c r="A6" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>50</v>
+      <c r="A6" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>17</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>43</v>
+        <v>33</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>20</v>
+        <v>65</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>46</v>
+        <v>38</v>
       </c>
       <c r="H7" s="5" t="s">
-        <v>67</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>74</v>
+      <c r="A8" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>71</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>23</v>
+        <v>77</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>44</v>
+        <v>33</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>45</v>
+        <v>82</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="9" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B11" s="9" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>62</v>
+        <v>54</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>63</v>
+        <v>55</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>64</v>
+        <v>56</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>66</v>
+        <v>58</v>
       </c>
     </row>
     <row r="12" spans="1:8">
       <c r="A12" s="2" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>47</v>
+        <v>40</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H12" s="5" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:8">
       <c r="A13" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>43</v>
+        <v>36</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H13" s="5" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:8">
       <c r="A14" s="2" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="H14" s="5" t="s">
-        <v>48</v>
+        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:8">
       <c r="A15" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C15" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>46</v>
+        <v>39</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="H15" s="5" t="s">
-        <v>49</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="1:8">
       <c r="A16" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="C16" s="5" t="s">
-        <v>22</v>
+        <v>18</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>84</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>43</v>
+        <v>85</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>45</v>
+        <v>81</v>
       </c>
       <c r="H16" s="5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:8">
       <c r="A17" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>76</v>
+        <v>67</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>34</v>
+        <v>89</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>45</v>
+        <v>38</v>
       </c>
       <c r="H17" s="5" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" spans="1:8">
-      <c r="A18" s="2"/>
-      <c r="B18" s="6"/>
+      <c r="A18" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>73</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="D18" s="5" t="s">
+        <v>79</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>78</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>81</v>
+      </c>
+      <c r="G18" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="H18" s="5" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="B20" s="5" t="s">
+        <v>83</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
